--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -25077,7 +25077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Component</t>
   </si>
@@ -25154,7 +25154,7 @@
     <t>single-cell metadata</t>
   </si>
   <si>
-    <t>aligned reads</t>
+    <t>barcode counts</t>
   </si>
   <si>
     <t>bam</t>
@@ -25196,7 +25196,7 @@
     <t>matrix</t>
   </si>
   <si>
-    <t>filtered/QC'd data</t>
+    <t>epigenomic peaks</t>
   </si>
   <si>
     <t>bim</t>
@@ -25214,7 +25214,7 @@
     <t>ROCR prediction.object</t>
   </si>
   <si>
-    <t>gene and/or barcode counts</t>
+    <t>gene counts</t>
   </si>
   <si>
     <t>csv</t>
@@ -25230,9 +25230,6 @@
   </si>
   <si>
     <t>Seurat object</t>
-  </si>
-  <si>
-    <t>peaks</t>
   </si>
   <si>
     <t>fam</t>
@@ -52759,14 +52756,14 @@
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$E1 = "metadata"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$E1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$E1 = "experimental data"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
@@ -52774,13 +52771,13 @@
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52985,189 +52982,186 @@
       <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="7" t="s">
+    </row>
+    <row r="7">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="7" t="s">
+    </row>
+    <row r="8">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="7" t="s">
+    </row>
+    <row r="9">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="7" t="s">
+    </row>
+    <row r="10">
+      <c r="C10" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="7" t="s">
+    </row>
+    <row r="11">
+      <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="12">
+      <c r="C12" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="13">
+      <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="14">
+      <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="15">
+      <c r="C15" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="16">
+      <c r="C16" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="7" t="s">
+    </row>
+    <row r="17">
+      <c r="C17" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="18">
+      <c r="D18" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="7" t="s">
+    <row r="19">
+      <c r="D19" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" s="7" t="s">
+    <row r="20">
+      <c r="D20" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" s="7" t="s">
+    <row r="21">
+      <c r="D21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21">
-      <c r="D21" s="7" t="s">
+    <row r="22">
+      <c r="D22" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22">
-      <c r="D22" s="7" t="s">
+    <row r="23">
+      <c r="D23" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23">
-      <c r="D23" s="7" t="s">
+    <row r="24">
+      <c r="D24" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24">
-      <c r="D24" s="7" t="s">
+    <row r="25">
+      <c r="D25" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25">
-      <c r="D25" s="7" t="s">
+    <row r="26">
+      <c r="D26" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" s="7" t="s">
+    <row r="27">
+      <c r="D27" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27">
-      <c r="D27" s="7" t="s">
+    <row r="28">
+      <c r="D28" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" s="7" t="s">
+    <row r="29">
+      <c r="D29" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" s="7" t="s">
+    <row r="30">
+      <c r="D30" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" s="7" t="s">
+    <row r="31">
+      <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="32">
       <c r="D32" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52756,14 +52756,14 @@
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$E1 = "experimental data"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "metadata"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$E1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -25077,7 +25077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>Component</t>
   </si>
@@ -25283,34 +25283,37 @@
     <t>tgz</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>kiloplex</t>
   </si>
   <si>
     <t>tsv</t>
   </si>
   <si>
-    <t>multiplexed ELISA</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
     <t>txt</t>
   </si>
   <si>
-    <t>NULISA</t>
+    <t>multiplexed ELISA</t>
   </si>
   <si>
     <t>xls</t>
   </si>
   <si>
-    <t>Olink Explore HT</t>
+    <t>NULISA</t>
   </si>
   <si>
     <t>xlsx</t>
   </si>
   <si>
-    <t>Olink Flex</t>
+    <t>Olink Explore HT</t>
   </si>
   <si>
     <t>zip</t>
+  </si>
+  <si>
+    <t>Olink Flex</t>
   </si>
   <si>
     <t>Olink Focus</t>
@@ -52746,12 +52749,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
@@ -52766,7 +52769,7 @@
       <formula>$E1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -52776,7 +52779,7 @@
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -53164,6 +53167,11 @@
         <v>93</v>
       </c>
     </row>
+    <row r="33">
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52749,27 +52749,27 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$E1 = "experimental data"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$E1 = "experimental data"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -52779,7 +52779,7 @@
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52759,14 +52759,14 @@
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$E1 = "experimental data"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$E1 = "metadata"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$E1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
@@ -52774,13 +52774,13 @@
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52749,38 +52749,38 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$E1 = "experimental data"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$E1 = "experimental data"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$D1 = "feature barcode sequencing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52769,17 +52769,17 @@
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$D1 = "feature barcode sequencing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$D1 = "feature barcode sequencing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52749,12 +52749,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$G1 = "single specimen"</formula>
     </cfRule>
@@ -52769,17 +52769,17 @@
       <formula>$E1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$D1 = "feature barcode sequencing"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$D1 = "feature barcode sequencing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$D1 = "feature barcode sequencing"</formula>
     </cfRule>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,12 +52738,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
@@ -52758,13 +52758,13 @@
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,33 +52738,33 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$D1 = "experimental data"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "experimental data"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$C1 = "feature barcode sequencing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,12 +52738,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
@@ -52758,8 +52758,8 @@
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52768,8 +52768,8 @@
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,28 +52738,28 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$D1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$D1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52768,8 +52768,8 @@
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52758,17 +52758,17 @@
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$C1 = "feature barcode sequencing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$C1 = "feature barcode sequencing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,12 +52738,12 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,24 +52738,24 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$D1 = "metadata"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "experimental data"</formula>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52738,38 +52738,38 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1000">
+  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="J1:J1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$D1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$D1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52748,18 +52748,18 @@
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$D1 = "experimental data"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "experimental data"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52768,8 +52768,8 @@
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52748,28 +52748,28 @@
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$D1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$D1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -25072,7 +25072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Component</t>
   </si>
@@ -25251,7 +25251,7 @@
     <t>h5ad</t>
   </si>
   <si>
-    <t>H&amp;E</t>
+    <t>GenePS SeqFISH</t>
   </si>
   <si>
     <t>Symphony reference</t>
@@ -25260,7 +25260,7 @@
     <t>mtx</t>
   </si>
   <si>
-    <t>imaging mass cytometry</t>
+    <t>H&amp;E</t>
   </si>
   <si>
     <t>vector</t>
@@ -25269,40 +25269,43 @@
     <t>Rds</t>
   </si>
   <si>
-    <t>imaging mass spectrometry</t>
+    <t>imaging mass cytometry</t>
   </si>
   <si>
     <t>tgz</t>
   </si>
   <si>
-    <t>kiloplex</t>
+    <t>imaging mass spectrometry</t>
   </si>
   <si>
     <t>tsv</t>
   </si>
   <si>
-    <t>LC-MS/MS</t>
+    <t>kiloplex</t>
   </si>
   <si>
     <t>txt</t>
   </si>
   <si>
-    <t>multiplexed ELISA</t>
+    <t>LC-MS/MS</t>
   </si>
   <si>
     <t>xls</t>
   </si>
   <si>
-    <t>NULISA</t>
+    <t>multiplexed ELISA</t>
   </si>
   <si>
     <t>xlsx</t>
   </si>
   <si>
-    <t>Olink Explore HT</t>
+    <t>NULISA</t>
   </si>
   <si>
     <t>zip</t>
+  </si>
+  <si>
+    <t>Olink Explore HT</t>
   </si>
   <si>
     <t>Olink Flex</t>
@@ -25345,6 +25348,9 @@
   </si>
   <si>
     <t>VDJSeq</t>
+  </si>
+  <si>
+    <t>Visium</t>
   </si>
   <si>
     <t>WES</t>
@@ -52758,12 +52764,12 @@
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -53158,6 +53164,16 @@
         <v>93</v>
       </c>
     </row>
+    <row r="34">
+      <c r="C34" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52764,8 +52764,8 @@
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52774,8 +52774,8 @@
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52764,13 +52764,13 @@
       <formula>$D1 = "experimental data"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
+++ b/model_templates/ark.ScRNASeqProcessedDataAnnotationTemplate.xlsx
@@ -52754,17 +52754,17 @@
       <formula>$F1 = "single specimen"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$D1 = "experimental data"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$D1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$D1 = "experimental data"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
@@ -52774,7 +52774,7 @@
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$C1 = "feature barcode sequencing"</formula>
     </cfRule>
